--- a/xlsx/country_comparison/main_radical_redistr_pol_US_positive.xlsx
+++ b/xlsx/country_comparison/main_radical_redistr_pol_US_positive.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -474,565 +471,526 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.678255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.582213755593942</v>
+        <v>0.645494526768042</v>
       </c>
       <c r="D2" t="n">
-        <v>0.645494526768042</v>
+        <v>0.800284739031995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800284739031995</v>
+        <v>0.642550167034555</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642550167034555</v>
+        <v>0.469492339511511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469492339511511</v>
+        <v>0.686368170390751</v>
       </c>
       <c r="H2" t="n">
-        <v>0.686368170390751</v>
+        <v>0.693214710621706</v>
       </c>
       <c r="I2" t="n">
-        <v>0.693214710621706</v>
+        <v>0.701245337266761</v>
       </c>
       <c r="J2" t="n">
-        <v>0.701245337266761</v>
+        <v>0.655038834308269</v>
       </c>
       <c r="K2" t="n">
-        <v>0.655038834308269</v>
+        <v>0.670469616314318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.670469616314318</v>
+        <v>0.636149633119223</v>
       </c>
       <c r="M2" t="n">
-        <v>0.636149633119223</v>
+        <v>0.785390250556912</v>
       </c>
       <c r="N2" t="n">
-        <v>0.785390250556912</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.496956252308101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.553746767090015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452808231861887</v>
+        <v>0.609015187485241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.609015187485241</v>
+        <v>0.7742661541532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7742661541532</v>
+        <v>0.599498572230777</v>
       </c>
       <c r="F3" t="n">
-        <v>0.599498572230777</v>
+        <v>0.458263840559057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.458263840559057</v>
+        <v>0.484321597862702</v>
       </c>
       <c r="H3" t="n">
-        <v>0.484321597862702</v>
+        <v>0.612111541228833</v>
       </c>
       <c r="I3" t="n">
-        <v>0.612111541228833</v>
+        <v>0.572331454255148</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572331454255148</v>
+        <v>0.519793089330563</v>
       </c>
       <c r="K3" t="n">
-        <v>0.519793089330563</v>
+        <v>0.427238977314708</v>
       </c>
       <c r="L3" t="n">
-        <v>0.427238977314708</v>
+        <v>0.536291385483281</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536291385483281</v>
+        <v>0.579183059294616</v>
       </c>
       <c r="N3" t="n">
-        <v>0.579183059294616</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.352117596369122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.655683473250087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.579787314673126</v>
+        <v>0.667584465905187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.667584465905187</v>
+        <v>0.846305654167647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.846305654167647</v>
+        <v>0.708488851215913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.708488851215913</v>
+        <v>0.545881515572153</v>
       </c>
       <c r="G4" t="n">
-        <v>0.545881515572153</v>
+        <v>0.613538232894647</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613538232894647</v>
+        <v>0.74780131987402</v>
       </c>
       <c r="I4" t="n">
-        <v>0.74780131987402</v>
+        <v>0.687363838387126</v>
       </c>
       <c r="J4" t="n">
-        <v>0.687363838387126</v>
+        <v>0.642613720738592</v>
       </c>
       <c r="K4" t="n">
-        <v>0.642613720738592</v>
+        <v>0.556998225262022</v>
       </c>
       <c r="L4" t="n">
-        <v>0.556998225262022</v>
+        <v>0.627010199560514</v>
       </c>
       <c r="M4" t="n">
-        <v>0.627010199560514</v>
+        <v>0.75157471671655</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75157471671655</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.425288098957725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704079856692946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.426801076374466</v>
+        <v>0.724074128225101</v>
       </c>
       <c r="D5" t="n">
-        <v>0.724074128225101</v>
+        <v>0.889579981493869</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889579981493869</v>
+        <v>0.682683457496027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.682683457496027</v>
+        <v>0.589211476424677</v>
       </c>
       <c r="G5" t="n">
-        <v>0.589211476424677</v>
+        <v>0.601842995962143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601842995962143</v>
+        <v>0.736252789377503</v>
       </c>
       <c r="I5" t="n">
-        <v>0.736252789377503</v>
+        <v>0.678172368299312</v>
       </c>
       <c r="J5" t="n">
-        <v>0.678172368299312</v>
+        <v>0.682885934685859</v>
       </c>
       <c r="K5" t="n">
-        <v>0.682885934685859</v>
+        <v>0.636132856291932</v>
       </c>
       <c r="L5" t="n">
-        <v>0.636132856291932</v>
+        <v>0.685485640466168</v>
       </c>
       <c r="M5" t="n">
-        <v>0.685485640466168</v>
+        <v>0.793249457133825</v>
       </c>
       <c r="N5" t="n">
-        <v>0.793249457133825</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.496836260204527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.556565037682828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393016824439431</v>
+        <v>0.584715470382293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.584715470382293</v>
+        <v>0.809444964341555</v>
       </c>
       <c r="E6" t="n">
-        <v>0.809444964341555</v>
+        <v>0.502893565174609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502893565174609</v>
+        <v>0.484386429576709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.484386429576709</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="H6" t="n">
-        <v>0.356105750421195</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="I6" t="n">
-        <v>0.508432438341536</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="J6" t="n">
-        <v>0.451519556659133</v>
+        <v>0.535251908690676</v>
       </c>
       <c r="K6" t="n">
-        <v>0.535251908690676</v>
+        <v>0.476758540730456</v>
       </c>
       <c r="L6" t="n">
-        <v>0.476758540730456</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="M6" t="n">
-        <v>0.503741905167505</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="N6" t="n">
-        <v>0.637096655800029</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.373993319775201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.503247309719211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316231358914818</v>
+        <v>0.513850437188526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.513850437188526</v>
+        <v>0.71931115965366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71931115965366</v>
+        <v>0.495264748486105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.495264748486105</v>
+        <v>0.440316456384772</v>
       </c>
       <c r="G7" t="n">
-        <v>0.440316456384772</v>
+        <v>0.34215953895184</v>
       </c>
       <c r="H7" t="n">
-        <v>0.34215953895184</v>
+        <v>0.455068700122256</v>
       </c>
       <c r="I7" t="n">
-        <v>0.455068700122256</v>
+        <v>0.306824263084082</v>
       </c>
       <c r="J7" t="n">
-        <v>0.306824263084082</v>
+        <v>0.47817469415572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.47817469415572</v>
+        <v>0.43506217467297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.43506217467297</v>
+        <v>0.455679906453223</v>
       </c>
       <c r="M7" t="n">
-        <v>0.455679906453223</v>
+        <v>0.566496834134014</v>
       </c>
       <c r="N7" t="n">
-        <v>0.566496834134014</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.339067925103543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.680815013747804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616668833076667</v>
+        <v>0.680673282454082</v>
       </c>
       <c r="D8" t="n">
-        <v>0.680673282454082</v>
+        <v>0.831184500933943</v>
       </c>
       <c r="E8" t="n">
-        <v>0.831184500933943</v>
+        <v>0.695788344040076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695788344040076</v>
+        <v>0.538162773640089</v>
       </c>
       <c r="G8" t="n">
-        <v>0.538162773640089</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="H8" t="n">
-        <v>0.743644347389163</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="I8" t="n">
-        <v>0.814701212857562</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="J8" t="n">
-        <v>0.757048871605567</v>
+        <v>0.673024184815142</v>
       </c>
       <c r="K8" t="n">
-        <v>0.673024184815142</v>
+        <v>0.611564962508487</v>
       </c>
       <c r="L8" t="n">
-        <v>0.611564962508487</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="M8" t="n">
-        <v>0.671270631778761</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="N8" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.704960018034767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.501381130731594</v>
+        <v>0.787954017306878</v>
       </c>
       <c r="D9" t="n">
-        <v>0.787954017306878</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="E9" t="n">
-        <v>0.876770446811719</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.74609538238357</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.664878143534609</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7335602187152</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="I9" t="n">
-        <v>0.725922165695082</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="J9" t="n">
-        <v>0.685126203737904</v>
+        <v>0.577788249681758</v>
       </c>
       <c r="K9" t="n">
-        <v>0.577788249681758</v>
+        <v>0.539896049184444</v>
       </c>
       <c r="L9" t="n">
-        <v>0.539896049184444</v>
+        <v>0.688883535477258</v>
       </c>
       <c r="M9" t="n">
-        <v>0.688883535477258</v>
+        <v>0.68963486840272</v>
       </c>
       <c r="N9" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.436451458600216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.675595447215337</v>
       </c>
       <c r="C10" t="n">
-        <v>0.523930159271177</v>
+        <v>0.70986778173764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.70986778173764</v>
+        <v>0.892471876813608</v>
       </c>
       <c r="E10" t="n">
-        <v>0.892471876813608</v>
+        <v>0.637051467662211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.637051467662211</v>
+        <v>0.578161277543308</v>
       </c>
       <c r="G10" t="n">
-        <v>0.578161277543308</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="H10" t="n">
-        <v>0.433349195600366</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="I10" t="n">
-        <v>0.696851480613757</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="J10" t="n">
-        <v>0.583790255087382</v>
+        <v>0.71920406264065</v>
       </c>
       <c r="K10" t="n">
-        <v>0.71920406264065</v>
+        <v>0.6189512868848</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6189512868848</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="M10" t="n">
-        <v>0.641824096726743</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="N10" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.364717906507653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.301242387158432</v>
+        <v>0.348888186886583</v>
       </c>
       <c r="D11" t="n">
-        <v>0.348888186886583</v>
+        <v>0.612564469882184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.612564469882184</v>
+        <v>0.329076922032927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.329076922032927</v>
+        <v>0.266032348749018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.266032348749018</v>
+        <v>0.163327499246366</v>
       </c>
       <c r="H11" t="n">
-        <v>0.163327499246366</v>
+        <v>0.313179598308858</v>
       </c>
       <c r="I11" t="n">
-        <v>0.313179598308858</v>
+        <v>0.218483573122562</v>
       </c>
       <c r="J11" t="n">
-        <v>0.218483573122562</v>
+        <v>0.404654417820348</v>
       </c>
       <c r="K11" t="n">
-        <v>0.404654417820348</v>
+        <v>0.36536832142909</v>
       </c>
       <c r="L11" t="n">
-        <v>0.36536832142909</v>
+        <v>0.283095421815601</v>
       </c>
       <c r="M11" t="n">
-        <v>0.283095421815601</v>
+        <v>0.52122515690493</v>
       </c>
       <c r="N11" t="n">
-        <v>0.52122515690493</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.27084855688435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>0.347853243460036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.262527011404327</v>
+        <v>0.394261110370281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394261110370281</v>
+        <v>0.540846531529226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.540846531529226</v>
+        <v>0.30076097129752</v>
       </c>
       <c r="F12" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.236110214107178</v>
       </c>
+      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="n">
+        <v>0.345632380582922</v>
+      </c>
       <c r="K12" t="n">
-        <v>0.345632380582922</v>
+        <v>0.291155578085398</v>
       </c>
       <c r="L12" t="n">
-        <v>0.291155578085398</v>
+        <v>0.311745273790548</v>
       </c>
       <c r="M12" t="n">
-        <v>0.311745273790548</v>
+        <v>0.450524011973634</v>
       </c>
       <c r="N12" t="n">
-        <v>0.450524011973634</v>
-      </c>
-      <c r="O12" t="n">
         <v>0.173904958357855</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>0.410629863862209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.393225264575894</v>
+        <v>0.380980276520636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.380980276520636</v>
+        <v>0.606618681027554</v>
       </c>
       <c r="E13" t="n">
-        <v>0.606618681027554</v>
+        <v>0.404741669455715</v>
       </c>
       <c r="F13" t="n">
-        <v>0.404741669455715</v>
+        <v>0.296470179474792</v>
       </c>
       <c r="G13" t="n">
-        <v>0.296470179474792</v>
+        <v>0.282669471326983</v>
       </c>
       <c r="H13" t="n">
-        <v>0.282669471326983</v>
+        <v>0.376571407830385</v>
       </c>
       <c r="I13" t="n">
-        <v>0.376571407830385</v>
+        <v>0.32600471502799</v>
       </c>
       <c r="J13" t="n">
-        <v>0.32600471502799</v>
+        <v>0.451312875643141</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451312875643141</v>
+        <v>0.341314279087687</v>
       </c>
       <c r="L13" t="n">
-        <v>0.341314279087687</v>
+        <v>0.362475436951784</v>
       </c>
       <c r="M13" t="n">
-        <v>0.362475436951784</v>
+        <v>0.535384805366787</v>
       </c>
       <c r="N13" t="n">
-        <v>0.535384805366787</v>
-      </c>
-      <c r="O13" t="n">
         <v>0.265617828927838</v>
       </c>
     </row>
